--- a/outcome.xlsx
+++ b/outcome.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="61">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -194,6 +194,15 @@
   </si>
   <si>
     <t>5-JULY-2023-14-16-33</t>
+  </si>
+  <si>
+    <t>5-JULY-2023-14-45-6</t>
+  </si>
+  <si>
+    <t>5-JULY-2023-14-45-22</t>
+  </si>
+  <si>
+    <t>5-JULY-2023-14-45-28</t>
   </si>
 </sst>
 </file>
@@ -546,7 +555,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
@@ -1560,6 +1569,61 @@
         <v>57</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="B92" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C92" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="B93" t="s" s="0">
+        <v>8</v>
+      </c>
+      <c r="C93" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C94" t="s" s="0">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="B95" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C95" t="s" s="0">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="B96" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="C96" t="s" s="0">
+        <v>60</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
